--- a/Forecasting/YT Channel Data.xlsx
+++ b/Forecasting/YT Channel Data.xlsx
@@ -1,25 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\narayan\Downloads\Github- rishabhnmishra\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\Desktop\dashboard\VrindaExcelDash\Forecasting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F365B99B-2A37-4826-A897-2FC4BE108386}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83608D10-5B50-439F-ABE5-DBBBBD2EEF94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{7E20F6C1-14D4-42C9-8E55-98360864FC46}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11724" windowHeight="12336" xr2:uid="{7E20F6C1-14D4-42C9-8E55-98360864FC46}"/>
   </bookViews>
   <sheets>
-    <sheet name="RM- YT Data" sheetId="4" r:id="rId1"/>
-    <sheet name="Data Validation" sheetId="5" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="7" r:id="rId1"/>
+    <sheet name="RM- YT Data" sheetId="4" r:id="rId2"/>
+    <sheet name="Data Validation" sheetId="5" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'RM- YT Data'!$A$2:$B$230</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'RM- YT Data'!$A$2:$B$230</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="9">
   <si>
     <t>Date</t>
   </si>
@@ -42,12 +43,27 @@
   <si>
     <t>Forecasting</t>
   </si>
+  <si>
+    <t>By Formula</t>
+  </si>
+  <si>
+    <t>By Line Chart Regression Model</t>
+  </si>
+  <si>
+    <t>Forecast(Views)</t>
+  </si>
+  <si>
+    <t>Lower Confidence Bound(Views)</t>
+  </si>
+  <si>
+    <t>Upper Confidence Bound(Views)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -85,8 +101,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -105,6 +129,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -118,7 +154,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -135,11 +171,26 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="3">
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -150,6 +201,6203 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.10419589205909777"/>
+          <c:y val="2.6004823315949561E-2"/>
+          <c:w val="0.88156164703453577"/>
+          <c:h val="0.51018999122796227"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Views</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$2:$B$236</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="235"/>
+                <c:pt idx="0">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>118</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>134</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>152</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>151</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>162</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>149</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>179</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>198</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>195</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>186</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>156</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>308</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>458</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>584</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>795</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>831</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>553</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>545</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>548.5</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>697</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>978.5</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>953</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>918</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>703</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1051</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1251</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1353</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1187</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1206</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>906</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>808.5</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>663</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>621.5</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>726</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>895</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>916</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>893</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>751</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>988</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>904</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>709</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>784</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>765</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>688</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1310</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1204</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>932</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>966</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>793</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>780</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>935</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>715</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>723</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>713</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>733</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1021</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>820</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>695</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>771</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>727</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>773</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>911</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>928</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>958</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>796</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>839</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>1041</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>1322</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>1344</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>992</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>815</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>943</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>1066</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>1039</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>972</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>1058</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>961</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>931</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>887</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>823</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>807</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>1266</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>1827</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>1289</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>973</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>841</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>742</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>1050</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>960</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>1010</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>1017</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>1130</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>961</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>934</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>821</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>793</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>724</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>774</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>1146</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>934</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>689</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>892</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>982</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>680</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>614</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>743</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>970</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>724</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>859</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>1412</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>1219</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>987</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>1056</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>1050</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>1164</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>1214</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>1510</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>1293</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>1498</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>1377</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>1111</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>1127</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>1356</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>1281</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>1325</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>1123</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>1071</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>1064</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>916</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>781</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>550</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>631</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>871</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>940</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>986</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>1140</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>1235</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>1109</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>1082</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>1088</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>911</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>970</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>886</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>1151</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>2322</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>1910</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>1444</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>1093</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>1169</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>1051</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>1118</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>1181</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>1303</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>1104</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>1059</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>1036</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>1119</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>1112</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>1197</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>1050</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>1017</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>992</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>951</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>1031</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>1111</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>1084</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>1357</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>1418</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>1914</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>1276</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>1480</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>1735</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>1489</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>1469</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>1389</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>1179</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>1234</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>1677</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>1966</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>1878</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>1645</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>1498</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>1465</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>1463</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>2052</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>1567</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>1731</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>1560</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>1408</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>1392</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>1501</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>1807</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>1583</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>1727</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>1742</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>1908</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>1604</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>1822</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>2037</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>2138</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>2077</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>1894</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>1934</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>1855</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>1828</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>1824</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>2029</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>1917</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>1984</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>1812</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>1867</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>1984</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-CF4C-416B-8C94-8AA592DD3A9C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Forecast(Views)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$A$2:$A$236</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="235"/>
+                <c:pt idx="0">
+                  <c:v>44713</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44714</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44715</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>44716</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44717</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>44718</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>44719</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>44720</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>44721</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>44722</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>44723</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>44724</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>44725</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>44726</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>44727</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>44728</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>44729</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>44730</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>44731</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>44732</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>44733</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>44734</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>44735</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>44736</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>44737</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>44738</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>44739</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>44740</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>44741</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>44742</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>44743</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>44744</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>44745</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>44746</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>44747</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>44748</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>44749</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>44750</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>44751</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>44752</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>44753</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>44754</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>44755</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>44756</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44757</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>44758</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>44759</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>44760</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>44761</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>44762</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>44763</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>44764</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>44765</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>44766</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>44767</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>44768</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>44769</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>44770</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>44771</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>44772</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>44773</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>44774</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>44775</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>44776</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>44777</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>44778</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>44779</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>44780</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>44781</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>44782</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>44783</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>44784</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>44785</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>44786</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>44787</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>44788</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>44789</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>44790</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>44791</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>44792</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>44793</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>44794</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>44795</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>44796</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>44797</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>44798</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>44799</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>44800</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>44801</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>44802</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>44803</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>44804</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>44805</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>44806</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>44807</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>44808</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>44809</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>44810</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>44811</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>44812</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>44813</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>44814</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>44815</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>44816</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>44817</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>44818</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>44819</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>44820</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>44821</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>44822</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>44823</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>44824</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>44825</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>44826</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>44827</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>44828</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>44829</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>44830</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>44831</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>44832</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>44833</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>44834</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>44835</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>44836</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>44837</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>44838</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>44839</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>44840</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>44841</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>44842</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>44843</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>44844</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>44845</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>44846</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>44847</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>44848</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>44849</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>44850</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>44851</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>44852</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>44853</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>44854</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>44855</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>44856</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>44857</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>44858</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>44859</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>44860</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>44861</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>44862</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>44863</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>44864</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>44865</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>44866</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>44867</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>44868</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>44869</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>44870</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>44871</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>44872</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>44873</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>44874</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>44875</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>44876</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>44877</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>44878</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>44879</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>44880</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>44881</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>44882</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>44883</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>44884</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>44885</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>44886</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>44887</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>44888</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>44889</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>44890</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>44891</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>44892</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>44893</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>44894</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>44895</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>44896</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>44897</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>44898</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>44899</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>44900</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>44901</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>44902</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>44903</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>44904</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>44905</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>44906</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>44907</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>44908</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>44909</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>44910</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>44911</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>44912</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>44913</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>44914</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>44915</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>44916</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>44917</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>44918</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>44919</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>44920</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>44921</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>44922</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>44923</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>44924</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>44925</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>44926</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>44927</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>44928</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>44929</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>44930</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>44931</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>44932</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>44933</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>44934</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>44935</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>44936</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>44937</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>44938</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>44939</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>44940</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>44941</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>44942</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>44943</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>44944</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>44945</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>44946</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>44947</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$C$2:$C$236</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="235"/>
+                <c:pt idx="227">
+                  <c:v>1984</c:v>
+                </c:pt>
+                <c:pt idx="228" formatCode="0">
+                  <c:v>1990.2155092201199</c:v>
+                </c:pt>
+                <c:pt idx="229" formatCode="0">
+                  <c:v>1996.4310184402391</c:v>
+                </c:pt>
+                <c:pt idx="230" formatCode="0">
+                  <c:v>2002.646527660359</c:v>
+                </c:pt>
+                <c:pt idx="231" formatCode="0">
+                  <c:v>2008.8620368804782</c:v>
+                </c:pt>
+                <c:pt idx="232" formatCode="0">
+                  <c:v>2015.0775461005981</c:v>
+                </c:pt>
+                <c:pt idx="233" formatCode="0">
+                  <c:v>2021.2930553207173</c:v>
+                </c:pt>
+                <c:pt idx="234" formatCode="0">
+                  <c:v>2027.5085645408371</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-CF4C-416B-8C94-8AA592DD3A9C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Lower Confidence Bound(Views)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="ED7D31"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$A$2:$A$236</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="235"/>
+                <c:pt idx="0">
+                  <c:v>44713</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44714</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44715</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>44716</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44717</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>44718</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>44719</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>44720</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>44721</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>44722</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>44723</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>44724</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>44725</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>44726</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>44727</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>44728</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>44729</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>44730</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>44731</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>44732</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>44733</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>44734</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>44735</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>44736</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>44737</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>44738</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>44739</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>44740</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>44741</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>44742</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>44743</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>44744</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>44745</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>44746</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>44747</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>44748</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>44749</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>44750</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>44751</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>44752</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>44753</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>44754</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>44755</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>44756</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44757</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>44758</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>44759</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>44760</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>44761</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>44762</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>44763</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>44764</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>44765</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>44766</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>44767</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>44768</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>44769</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>44770</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>44771</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>44772</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>44773</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>44774</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>44775</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>44776</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>44777</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>44778</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>44779</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>44780</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>44781</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>44782</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>44783</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>44784</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>44785</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>44786</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>44787</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>44788</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>44789</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>44790</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>44791</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>44792</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>44793</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>44794</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>44795</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>44796</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>44797</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>44798</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>44799</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>44800</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>44801</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>44802</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>44803</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>44804</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>44805</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>44806</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>44807</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>44808</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>44809</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>44810</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>44811</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>44812</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>44813</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>44814</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>44815</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>44816</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>44817</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>44818</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>44819</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>44820</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>44821</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>44822</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>44823</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>44824</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>44825</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>44826</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>44827</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>44828</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>44829</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>44830</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>44831</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>44832</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>44833</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>44834</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>44835</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>44836</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>44837</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>44838</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>44839</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>44840</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>44841</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>44842</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>44843</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>44844</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>44845</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>44846</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>44847</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>44848</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>44849</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>44850</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>44851</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>44852</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>44853</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>44854</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>44855</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>44856</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>44857</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>44858</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>44859</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>44860</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>44861</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>44862</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>44863</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>44864</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>44865</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>44866</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>44867</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>44868</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>44869</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>44870</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>44871</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>44872</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>44873</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>44874</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>44875</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>44876</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>44877</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>44878</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>44879</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>44880</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>44881</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>44882</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>44883</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>44884</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>44885</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>44886</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>44887</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>44888</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>44889</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>44890</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>44891</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>44892</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>44893</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>44894</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>44895</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>44896</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>44897</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>44898</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>44899</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>44900</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>44901</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>44902</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>44903</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>44904</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>44905</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>44906</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>44907</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>44908</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>44909</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>44910</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>44911</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>44912</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>44913</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>44914</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>44915</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>44916</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>44917</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>44918</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>44919</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>44920</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>44921</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>44922</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>44923</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>44924</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>44925</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>44926</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>44927</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>44928</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>44929</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>44930</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>44931</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>44932</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>44933</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>44934</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>44935</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>44936</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>44937</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>44938</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>44939</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>44940</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>44941</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>44942</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>44943</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>44944</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>44945</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>44946</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>44947</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$D$2:$D$236</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="235"/>
+                <c:pt idx="227" formatCode="0.00">
+                  <c:v>1984</c:v>
+                </c:pt>
+                <c:pt idx="228" formatCode="0">
+                  <c:v>1688.6327060440249</c:v>
+                </c:pt>
+                <c:pt idx="229" formatCode="0">
+                  <c:v>1603.6651141103252</c:v>
+                </c:pt>
+                <c:pt idx="230" formatCode="0">
+                  <c:v>1536.031285934175</c:v>
+                </c:pt>
+                <c:pt idx="231" formatCode="0">
+                  <c:v>1478.4409271033546</c:v>
+                </c:pt>
+                <c:pt idx="232" formatCode="0">
+                  <c:v>1427.6121878312783</c:v>
+                </c:pt>
+                <c:pt idx="233" formatCode="0">
+                  <c:v>1381.7330924372718</c:v>
+                </c:pt>
+                <c:pt idx="234" formatCode="0">
+                  <c:v>1339.6779658666496</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-CF4C-416B-8C94-8AA592DD3A9C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Upper Confidence Bound(Views)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="ED7D31"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$A$2:$A$236</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="235"/>
+                <c:pt idx="0">
+                  <c:v>44713</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44714</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44715</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>44716</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44717</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>44718</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>44719</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>44720</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>44721</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>44722</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>44723</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>44724</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>44725</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>44726</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>44727</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>44728</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>44729</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>44730</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>44731</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>44732</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>44733</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>44734</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>44735</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>44736</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>44737</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>44738</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>44739</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>44740</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>44741</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>44742</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>44743</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>44744</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>44745</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>44746</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>44747</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>44748</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>44749</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>44750</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>44751</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>44752</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>44753</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>44754</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>44755</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>44756</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44757</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>44758</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>44759</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>44760</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>44761</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>44762</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>44763</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>44764</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>44765</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>44766</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>44767</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>44768</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>44769</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>44770</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>44771</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>44772</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>44773</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>44774</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>44775</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>44776</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>44777</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>44778</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>44779</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>44780</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>44781</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>44782</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>44783</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>44784</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>44785</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>44786</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>44787</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>44788</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>44789</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>44790</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>44791</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>44792</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>44793</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>44794</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>44795</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>44796</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>44797</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>44798</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>44799</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>44800</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>44801</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>44802</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>44803</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>44804</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>44805</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>44806</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>44807</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>44808</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>44809</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>44810</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>44811</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>44812</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>44813</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>44814</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>44815</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>44816</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>44817</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>44818</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>44819</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>44820</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>44821</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>44822</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>44823</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>44824</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>44825</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>44826</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>44827</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>44828</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>44829</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>44830</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>44831</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>44832</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>44833</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>44834</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>44835</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>44836</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>44837</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>44838</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>44839</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>44840</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>44841</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>44842</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>44843</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>44844</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>44845</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>44846</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>44847</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>44848</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>44849</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>44850</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>44851</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>44852</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>44853</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>44854</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>44855</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>44856</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>44857</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>44858</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>44859</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>44860</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>44861</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>44862</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>44863</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>44864</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>44865</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>44866</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>44867</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>44868</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>44869</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>44870</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>44871</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>44872</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>44873</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>44874</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>44875</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>44876</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>44877</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>44878</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>44879</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>44880</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>44881</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>44882</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>44883</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>44884</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>44885</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>44886</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>44887</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>44888</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>44889</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>44890</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>44891</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>44892</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>44893</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>44894</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>44895</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>44896</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>44897</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>44898</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>44899</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>44900</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>44901</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>44902</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>44903</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>44904</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>44905</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>44906</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>44907</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>44908</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>44909</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>44910</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>44911</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>44912</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>44913</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>44914</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>44915</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>44916</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>44917</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>44918</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>44919</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>44920</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>44921</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>44922</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>44923</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>44924</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>44925</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>44926</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>44927</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>44928</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>44929</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>44930</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>44931</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>44932</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>44933</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>44934</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>44935</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>44936</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>44937</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>44938</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>44939</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>44940</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>44941</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>44942</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>44943</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>44944</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>44945</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>44946</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>44947</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$E$2:$E$236</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="235"/>
+                <c:pt idx="227" formatCode="0.00">
+                  <c:v>1984</c:v>
+                </c:pt>
+                <c:pt idx="228" formatCode="0">
+                  <c:v>2291.7983123962149</c:v>
+                </c:pt>
+                <c:pt idx="229" formatCode="0">
+                  <c:v>2389.1969227701529</c:v>
+                </c:pt>
+                <c:pt idx="230" formatCode="0">
+                  <c:v>2469.2617693865427</c:v>
+                </c:pt>
+                <c:pt idx="231" formatCode="0">
+                  <c:v>2539.2831466576017</c:v>
+                </c:pt>
+                <c:pt idx="232" formatCode="0">
+                  <c:v>2602.5429043699178</c:v>
+                </c:pt>
+                <c:pt idx="233" formatCode="0">
+                  <c:v>2660.8530182041627</c:v>
+                </c:pt>
+                <c:pt idx="234" formatCode="0">
+                  <c:v>2715.3391632150247</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-CF4C-416B-8C94-8AA592DD3A9C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="413759087"/>
+        <c:axId val="643995759"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="413759087"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="low"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="643995759"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="643995759"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="413759087"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'RM- YT Data'!$B$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Views</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="3"/>
+            <c:forward val="90"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="0"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-7.8040458500322762E-3"/>
+                  <c:y val="-8.9931440316472627E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:cat>
+            <c:numRef>
+              <c:f>'RM- YT Data'!$A$4:$A$231</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="228"/>
+                <c:pt idx="0">
+                  <c:v>44714</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44715</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44716</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>44717</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44718</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>44719</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>44720</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>44721</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>44722</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>44723</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>44724</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>44725</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>44726</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>44727</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>44728</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>44729</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>44730</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>44731</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>44732</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>44733</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>44734</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>44735</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>44736</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>44737</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>44738</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>44739</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>44740</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>44741</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>44742</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>44743</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>44744</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>44745</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>44746</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>44747</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>44748</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>44749</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>44750</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>44751</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>44752</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>44753</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>44754</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>44755</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>44756</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>44757</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44758</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>44759</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>44760</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>44761</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>44762</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>44763</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>44764</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>44765</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>44766</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>44767</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>44768</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>44769</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>44770</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>44771</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>44772</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>44773</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>44774</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>44775</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>44776</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>44777</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>44778</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>44779</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>44780</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>44781</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>44782</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>44783</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>44784</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>44785</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>44786</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>44787</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>44788</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>44789</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>44790</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>44791</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>44792</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>44793</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>44794</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>44795</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>44796</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>44797</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>44798</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>44799</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>44800</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>44801</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>44802</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>44803</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>44804</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>44805</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>44806</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>44807</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>44808</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>44809</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>44810</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>44811</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>44812</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>44813</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>44814</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>44815</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>44816</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>44817</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>44818</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>44819</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>44820</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>44821</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>44822</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>44823</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>44824</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>44825</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>44826</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>44827</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>44828</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>44829</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>44830</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>44831</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>44832</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>44833</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>44834</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>44835</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>44836</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>44837</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>44838</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>44839</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>44840</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>44841</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>44842</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>44843</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>44844</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>44845</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>44846</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>44847</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>44848</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>44849</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>44850</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>44851</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>44852</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>44853</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>44854</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>44855</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>44856</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>44857</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>44858</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>44859</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>44860</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>44861</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>44862</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>44863</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>44864</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>44865</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>44866</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>44867</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>44868</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>44869</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>44870</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>44871</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>44872</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>44873</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>44874</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>44875</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>44876</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>44877</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>44878</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>44879</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>44880</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>44881</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>44882</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>44883</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>44884</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>44885</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>44886</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>44887</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>44888</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>44889</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>44890</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>44891</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>44892</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>44893</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>44894</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>44895</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>44896</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>44897</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>44898</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>44899</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>44900</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>44901</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>44902</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>44903</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>44904</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>44905</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>44906</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>44907</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>44908</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>44909</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>44910</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>44911</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>44912</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>44913</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>44914</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>44915</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>44916</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>44917</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>44918</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>44919</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>44920</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>44921</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>44922</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>44923</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>44924</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>44925</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>44926</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>44927</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>44928</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>44929</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>44930</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>44931</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>44932</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>44933</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>44934</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>44935</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>44936</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>44937</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>44938</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>44939</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>44940</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'RM- YT Data'!$B$4:$B$231</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="228"/>
+                <c:pt idx="0">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>118</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>134</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>152</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>151</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>162</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>149</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>179</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>198</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>195</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>186</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>156</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>308</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>458</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>584</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>795</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>831</c:v>
+                </c:pt>
+                <c:pt idx="29" formatCode="0">
+                  <c:v>553</c:v>
+                </c:pt>
+                <c:pt idx="30" formatCode="0">
+                  <c:v>545</c:v>
+                </c:pt>
+                <c:pt idx="31" formatCode="0">
+                  <c:v>548.5</c:v>
+                </c:pt>
+                <c:pt idx="32" formatCode="0">
+                  <c:v>697</c:v>
+                </c:pt>
+                <c:pt idx="33" formatCode="0">
+                  <c:v>978.5</c:v>
+                </c:pt>
+                <c:pt idx="34" formatCode="0">
+                  <c:v>953</c:v>
+                </c:pt>
+                <c:pt idx="35" formatCode="0">
+                  <c:v>918</c:v>
+                </c:pt>
+                <c:pt idx="36" formatCode="0">
+                  <c:v>703</c:v>
+                </c:pt>
+                <c:pt idx="37" formatCode="0">
+                  <c:v>1051</c:v>
+                </c:pt>
+                <c:pt idx="38" formatCode="0">
+                  <c:v>1251</c:v>
+                </c:pt>
+                <c:pt idx="39" formatCode="0">
+                  <c:v>1353</c:v>
+                </c:pt>
+                <c:pt idx="40" formatCode="0">
+                  <c:v>1187</c:v>
+                </c:pt>
+                <c:pt idx="41" formatCode="0">
+                  <c:v>1206</c:v>
+                </c:pt>
+                <c:pt idx="42" formatCode="0">
+                  <c:v>906</c:v>
+                </c:pt>
+                <c:pt idx="43" formatCode="0">
+                  <c:v>808.5</c:v>
+                </c:pt>
+                <c:pt idx="44" formatCode="0">
+                  <c:v>663</c:v>
+                </c:pt>
+                <c:pt idx="45" formatCode="0">
+                  <c:v>621.5</c:v>
+                </c:pt>
+                <c:pt idx="46" formatCode="0">
+                  <c:v>726</c:v>
+                </c:pt>
+                <c:pt idx="47" formatCode="0">
+                  <c:v>895</c:v>
+                </c:pt>
+                <c:pt idx="48" formatCode="0">
+                  <c:v>916</c:v>
+                </c:pt>
+                <c:pt idx="49" formatCode="0">
+                  <c:v>893</c:v>
+                </c:pt>
+                <c:pt idx="50" formatCode="0">
+                  <c:v>751</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>988</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>904</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>709</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>784</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>765</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>688</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1310</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1204</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>932</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>966</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>793</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>780</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>935</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>715</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>723</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>713</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>733</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1021</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>820</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>695</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>771</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>727</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>773</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>911</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>928</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>958</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>796</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>839</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>1041</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>1322</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>1344</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>992</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>815</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>943</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>1066</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>1039</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>972</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>1058</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>961</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>931</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>887</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>823</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>807</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>1266</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>1827</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>1289</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>973</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>841</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>742</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>1050</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>960</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>1010</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>1017</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>1130</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>961</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>934</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>821</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>793</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>724</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>774</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>1146</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>934</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>689</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>892</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>982</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>680</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>614</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>743</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>970</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>724</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>859</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>1412</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>1219</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>987</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>1056</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>1050</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>1164</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>1214</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>1510</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>1293</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>1498</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>1377</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>1111</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>1127</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>1356</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>1281</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>1325</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>1123</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>1071</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>1064</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>916</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>781</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>550</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>631</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>871</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>940</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>986</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>1140</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>1235</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>1109</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>1082</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>1088</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>911</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>970</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>886</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>1151</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>2322</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>1910</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>1444</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>1093</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>1169</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>1051</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>1118</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>1181</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>1303</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>1104</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>1059</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>1036</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>1119</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>1112</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>1197</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>1050</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>1017</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>992</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>951</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>1031</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>1111</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>1084</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>1357</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>1418</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>1914</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>1276</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>1480</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>1735</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>1489</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>1469</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>1389</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>1179</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>1234</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>1677</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>1966</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>1878</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>1645</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>1498</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>1465</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>1463</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>2052</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>1567</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>1731</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>1560</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>1408</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>1392</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>1501</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>1807</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>1583</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>1727</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>1742</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>1908</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>1604</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>1822</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>2037</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>2138</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>2077</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>1894</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>1934</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>1855</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>1828</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>1824</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>2029</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>1917</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>1984</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>1812</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>1867</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>1984</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-75BD-446D-85C1-9F0502CE5820}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="322747263"/>
+        <c:axId val="453259455"/>
+      </c:lineChart>
+      <c:dateAx>
+        <c:axId val="322747263"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="453259455"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="days"/>
+      </c:dateAx>
+      <c:valAx>
+        <c:axId val="453259455"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="322747263"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="accent1"/>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>283993</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>39077</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>166079</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>122848</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{749500D6-D2C8-90EB-F05A-C66FCDA3FE14}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>391160</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>455740</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>1740</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB46B5D7-17C0-471E-BE30-98AD947C5D80}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{B32E338E-8FE7-4284-8C2F-291C2BB93BDF}" name="Table4" displayName="Table4" ref="A1:E236" totalsRowShown="0">
+  <autoFilter ref="A1:E236" xr:uid="{B32E338E-8FE7-4284-8C2F-291C2BB93BDF}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{700C8288-C455-4571-9C56-C3345D35A19E}" name="Date" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{E946850E-E9FA-4E73-BAA0-1AEFBF07C6E7}" name="Views"/>
+    <tableColumn id="3" xr3:uid="{7B0ACE0E-042B-4E5C-9CC2-2F298D4AD322}" name="Forecast(Views)">
+      <calculatedColumnFormula>_xlfn.FORECAST.ETS(A2,$B$2:$B$229,$A$2:$A$229,1,1)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{36B9AEDB-3E6C-491B-AF35-BDE237EAB00C}" name="Lower Confidence Bound(Views)" dataDxfId="1">
+      <calculatedColumnFormula>C2-_xlfn.FORECAST.ETS.CONFINT(A2,$B$2:$B$229,$A$2:$A$229,0.85,1,1)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" xr3:uid="{54A5C0BB-7003-45D0-AA92-FA2DFE74FFEA}" name="Upper Confidence Bound(Views)" dataDxfId="0">
+      <calculatedColumnFormula>C2+_xlfn.FORECAST.ETS.CONFINT(A2,$B$2:$B$229,$A$2:$A$229,0.85,1,1)</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -441,21 +6689,2019 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46A9F113-59B9-4D9D-ABE2-817B614A8D62}">
+  <dimension ref="A1:E236"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A220" zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
+      <selection activeCell="E238" sqref="E238"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.109375" customWidth="1"/>
+    <col min="4" max="4" width="30.21875" customWidth="1"/>
+    <col min="5" max="5" width="30.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="5">
+        <v>44713</v>
+      </c>
+      <c r="B2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="5">
+        <v>44714</v>
+      </c>
+      <c r="B3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="5">
+        <v>44715</v>
+      </c>
+      <c r="B4">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="5">
+        <v>44716</v>
+      </c>
+      <c r="B5">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="5">
+        <v>44717</v>
+      </c>
+      <c r="B6">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="5">
+        <v>44718</v>
+      </c>
+      <c r="B7">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="5">
+        <v>44719</v>
+      </c>
+      <c r="B8">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="5">
+        <v>44720</v>
+      </c>
+      <c r="B9">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="5">
+        <v>44721</v>
+      </c>
+      <c r="B10">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="5">
+        <v>44722</v>
+      </c>
+      <c r="B11">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="5">
+        <v>44723</v>
+      </c>
+      <c r="B12">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="5">
+        <v>44724</v>
+      </c>
+      <c r="B13">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="5">
+        <v>44725</v>
+      </c>
+      <c r="B14">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="5">
+        <v>44726</v>
+      </c>
+      <c r="B15">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="5">
+        <v>44727</v>
+      </c>
+      <c r="B16">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="5">
+        <v>44728</v>
+      </c>
+      <c r="B17">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="5">
+        <v>44729</v>
+      </c>
+      <c r="B18">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="5">
+        <v>44730</v>
+      </c>
+      <c r="B19">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="5">
+        <v>44731</v>
+      </c>
+      <c r="B20">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" s="5">
+        <v>44732</v>
+      </c>
+      <c r="B21">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" s="5">
+        <v>44733</v>
+      </c>
+      <c r="B22">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" s="5">
+        <v>44734</v>
+      </c>
+      <c r="B23">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" s="5">
+        <v>44735</v>
+      </c>
+      <c r="B24">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" s="5">
+        <v>44736</v>
+      </c>
+      <c r="B25">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" s="5">
+        <v>44737</v>
+      </c>
+      <c r="B26">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" s="5">
+        <v>44738</v>
+      </c>
+      <c r="B27">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" s="5">
+        <v>44739</v>
+      </c>
+      <c r="B28">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" s="5">
+        <v>44740</v>
+      </c>
+      <c r="B29">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" s="5">
+        <v>44741</v>
+      </c>
+      <c r="B30">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" s="5">
+        <v>44742</v>
+      </c>
+      <c r="B31">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" s="5">
+        <v>44743</v>
+      </c>
+      <c r="B32">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" s="5">
+        <v>44744</v>
+      </c>
+      <c r="B33">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" s="5">
+        <v>44745</v>
+      </c>
+      <c r="B34">
+        <v>548.5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" s="5">
+        <v>44746</v>
+      </c>
+      <c r="B35">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" s="5">
+        <v>44747</v>
+      </c>
+      <c r="B36">
+        <v>978.5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" s="5">
+        <v>44748</v>
+      </c>
+      <c r="B37">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" s="5">
+        <v>44749</v>
+      </c>
+      <c r="B38">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" s="5">
+        <v>44750</v>
+      </c>
+      <c r="B39">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" s="5">
+        <v>44751</v>
+      </c>
+      <c r="B40">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" s="5">
+        <v>44752</v>
+      </c>
+      <c r="B41">
+        <v>1251</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" s="5">
+        <v>44753</v>
+      </c>
+      <c r="B42">
+        <v>1353</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" s="5">
+        <v>44754</v>
+      </c>
+      <c r="B43">
+        <v>1187</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44" s="5">
+        <v>44755</v>
+      </c>
+      <c r="B44">
+        <v>1206</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45" s="5">
+        <v>44756</v>
+      </c>
+      <c r="B45">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46" s="5">
+        <v>44757</v>
+      </c>
+      <c r="B46">
+        <v>808.5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47" s="5">
+        <v>44758</v>
+      </c>
+      <c r="B47">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48" s="5">
+        <v>44759</v>
+      </c>
+      <c r="B48">
+        <v>621.5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49" s="5">
+        <v>44760</v>
+      </c>
+      <c r="B49">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50" s="5">
+        <v>44761</v>
+      </c>
+      <c r="B50">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51" s="5">
+        <v>44762</v>
+      </c>
+      <c r="B51">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52" s="5">
+        <v>44763</v>
+      </c>
+      <c r="B52">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53" s="5">
+        <v>44764</v>
+      </c>
+      <c r="B53">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54" s="5">
+        <v>44765</v>
+      </c>
+      <c r="B54">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55" s="5">
+        <v>44766</v>
+      </c>
+      <c r="B55">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A56" s="5">
+        <v>44767</v>
+      </c>
+      <c r="B56">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A57" s="5">
+        <v>44768</v>
+      </c>
+      <c r="B57">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A58" s="5">
+        <v>44769</v>
+      </c>
+      <c r="B58">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A59" s="5">
+        <v>44770</v>
+      </c>
+      <c r="B59">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A60" s="5">
+        <v>44771</v>
+      </c>
+      <c r="B60">
+        <v>1310</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A61" s="5">
+        <v>44772</v>
+      </c>
+      <c r="B61">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A62" s="5">
+        <v>44773</v>
+      </c>
+      <c r="B62">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A63" s="5">
+        <v>44774</v>
+      </c>
+      <c r="B63">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A64" s="5">
+        <v>44775</v>
+      </c>
+      <c r="B64">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A65" s="5">
+        <v>44776</v>
+      </c>
+      <c r="B65">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A66" s="5">
+        <v>44777</v>
+      </c>
+      <c r="B66">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A67" s="5">
+        <v>44778</v>
+      </c>
+      <c r="B67">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A68" s="5">
+        <v>44779</v>
+      </c>
+      <c r="B68">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A69" s="5">
+        <v>44780</v>
+      </c>
+      <c r="B69">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A70" s="5">
+        <v>44781</v>
+      </c>
+      <c r="B70">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A71" s="5">
+        <v>44782</v>
+      </c>
+      <c r="B71">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A72" s="5">
+        <v>44783</v>
+      </c>
+      <c r="B72">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A73" s="5">
+        <v>44784</v>
+      </c>
+      <c r="B73">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A74" s="5">
+        <v>44785</v>
+      </c>
+      <c r="B74">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A75" s="5">
+        <v>44786</v>
+      </c>
+      <c r="B75">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A76" s="5">
+        <v>44787</v>
+      </c>
+      <c r="B76">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A77" s="5">
+        <v>44788</v>
+      </c>
+      <c r="B77">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A78" s="5">
+        <v>44789</v>
+      </c>
+      <c r="B78">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A79" s="5">
+        <v>44790</v>
+      </c>
+      <c r="B79">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A80" s="5">
+        <v>44791</v>
+      </c>
+      <c r="B80">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A81" s="5">
+        <v>44792</v>
+      </c>
+      <c r="B81">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A82" s="5">
+        <v>44793</v>
+      </c>
+      <c r="B82">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A83" s="5">
+        <v>44794</v>
+      </c>
+      <c r="B83">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A84" s="5">
+        <v>44795</v>
+      </c>
+      <c r="B84">
+        <v>1344</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A85" s="5">
+        <v>44796</v>
+      </c>
+      <c r="B85">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A86" s="5">
+        <v>44797</v>
+      </c>
+      <c r="B86">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A87" s="5">
+        <v>44798</v>
+      </c>
+      <c r="B87">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A88" s="5">
+        <v>44799</v>
+      </c>
+      <c r="B88">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A89" s="5">
+        <v>44800</v>
+      </c>
+      <c r="B89">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A90" s="5">
+        <v>44801</v>
+      </c>
+      <c r="B90">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A91" s="5">
+        <v>44802</v>
+      </c>
+      <c r="B91">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A92" s="5">
+        <v>44803</v>
+      </c>
+      <c r="B92">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A93" s="5">
+        <v>44804</v>
+      </c>
+      <c r="B93">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A94" s="5">
+        <v>44805</v>
+      </c>
+      <c r="B94">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A95" s="5">
+        <v>44806</v>
+      </c>
+      <c r="B95">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A96" s="5">
+        <v>44807</v>
+      </c>
+      <c r="B96">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A97" s="5">
+        <v>44808</v>
+      </c>
+      <c r="B97">
+        <v>1266</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A98" s="5">
+        <v>44809</v>
+      </c>
+      <c r="B98">
+        <v>1827</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A99" s="5">
+        <v>44810</v>
+      </c>
+      <c r="B99">
+        <v>1289</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A100" s="5">
+        <v>44811</v>
+      </c>
+      <c r="B100">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A101" s="5">
+        <v>44812</v>
+      </c>
+      <c r="B101">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A102" s="5">
+        <v>44813</v>
+      </c>
+      <c r="B102">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A103" s="5">
+        <v>44814</v>
+      </c>
+      <c r="B103">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A104" s="5">
+        <v>44815</v>
+      </c>
+      <c r="B104">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A105" s="5">
+        <v>44816</v>
+      </c>
+      <c r="B105">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A106" s="5">
+        <v>44817</v>
+      </c>
+      <c r="B106">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A107" s="5">
+        <v>44818</v>
+      </c>
+      <c r="B107">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A108" s="5">
+        <v>44819</v>
+      </c>
+      <c r="B108">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A109" s="5">
+        <v>44820</v>
+      </c>
+      <c r="B109">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A110" s="5">
+        <v>44821</v>
+      </c>
+      <c r="B110">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A111" s="5">
+        <v>44822</v>
+      </c>
+      <c r="B111">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A112" s="5">
+        <v>44823</v>
+      </c>
+      <c r="B112">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A113" s="5">
+        <v>44824</v>
+      </c>
+      <c r="B113">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A114" s="5">
+        <v>44825</v>
+      </c>
+      <c r="B114">
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A115" s="5">
+        <v>44826</v>
+      </c>
+      <c r="B115">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A116" s="5">
+        <v>44827</v>
+      </c>
+      <c r="B116">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A117" s="5">
+        <v>44828</v>
+      </c>
+      <c r="B117">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A118" s="5">
+        <v>44829</v>
+      </c>
+      <c r="B118">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A119" s="5">
+        <v>44830</v>
+      </c>
+      <c r="B119">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A120" s="5">
+        <v>44831</v>
+      </c>
+      <c r="B120">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A121" s="5">
+        <v>44832</v>
+      </c>
+      <c r="B121">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A122" s="5">
+        <v>44833</v>
+      </c>
+      <c r="B122">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A123" s="5">
+        <v>44834</v>
+      </c>
+      <c r="B123">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A124" s="5">
+        <v>44835</v>
+      </c>
+      <c r="B124">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A125" s="5">
+        <v>44836</v>
+      </c>
+      <c r="B125">
+        <v>1412</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A126" s="5">
+        <v>44837</v>
+      </c>
+      <c r="B126">
+        <v>1219</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A127" s="5">
+        <v>44838</v>
+      </c>
+      <c r="B127">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A128" s="5">
+        <v>44839</v>
+      </c>
+      <c r="B128">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A129" s="5">
+        <v>44840</v>
+      </c>
+      <c r="B129">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A130" s="5">
+        <v>44841</v>
+      </c>
+      <c r="B130">
+        <v>1164</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A131" s="5">
+        <v>44842</v>
+      </c>
+      <c r="B131">
+        <v>1214</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A132" s="5">
+        <v>44843</v>
+      </c>
+      <c r="B132">
+        <v>1510</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A133" s="5">
+        <v>44844</v>
+      </c>
+      <c r="B133">
+        <v>1293</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A134" s="5">
+        <v>44845</v>
+      </c>
+      <c r="B134">
+        <v>1498</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A135" s="5">
+        <v>44846</v>
+      </c>
+      <c r="B135">
+        <v>1377</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A136" s="5">
+        <v>44847</v>
+      </c>
+      <c r="B136">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A137" s="5">
+        <v>44848</v>
+      </c>
+      <c r="B137">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A138" s="5">
+        <v>44849</v>
+      </c>
+      <c r="B138">
+        <v>1356</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A139" s="5">
+        <v>44850</v>
+      </c>
+      <c r="B139">
+        <v>1281</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A140" s="5">
+        <v>44851</v>
+      </c>
+      <c r="B140">
+        <v>1325</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A141" s="5">
+        <v>44852</v>
+      </c>
+      <c r="B141">
+        <v>1123</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A142" s="5">
+        <v>44853</v>
+      </c>
+      <c r="B142">
+        <v>1071</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A143" s="5">
+        <v>44854</v>
+      </c>
+      <c r="B143">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A144" s="5">
+        <v>44855</v>
+      </c>
+      <c r="B144">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A145" s="5">
+        <v>44856</v>
+      </c>
+      <c r="B145">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A146" s="5">
+        <v>44857</v>
+      </c>
+      <c r="B146">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A147" s="5">
+        <v>44858</v>
+      </c>
+      <c r="B147">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A148" s="5">
+        <v>44859</v>
+      </c>
+      <c r="B148">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A149" s="5">
+        <v>44860</v>
+      </c>
+      <c r="B149">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A150" s="5">
+        <v>44861</v>
+      </c>
+      <c r="B150">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A151" s="5">
+        <v>44862</v>
+      </c>
+      <c r="B151">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A152" s="5">
+        <v>44863</v>
+      </c>
+      <c r="B152">
+        <v>1235</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A153" s="5">
+        <v>44864</v>
+      </c>
+      <c r="B153">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A154" s="5">
+        <v>44865</v>
+      </c>
+      <c r="B154">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A155" s="5">
+        <v>44866</v>
+      </c>
+      <c r="B155">
+        <v>1088</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A156" s="5">
+        <v>44867</v>
+      </c>
+      <c r="B156">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A157" s="5">
+        <v>44868</v>
+      </c>
+      <c r="B157">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A158" s="5">
+        <v>44869</v>
+      </c>
+      <c r="B158">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A159" s="5">
+        <v>44870</v>
+      </c>
+      <c r="B159">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A160" s="5">
+        <v>44871</v>
+      </c>
+      <c r="B160">
+        <v>2322</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A161" s="5">
+        <v>44872</v>
+      </c>
+      <c r="B161">
+        <v>1910</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A162" s="5">
+        <v>44873</v>
+      </c>
+      <c r="B162">
+        <v>1444</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A163" s="5">
+        <v>44874</v>
+      </c>
+      <c r="B163">
+        <v>1093</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A164" s="5">
+        <v>44875</v>
+      </c>
+      <c r="B164">
+        <v>1169</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A165" s="5">
+        <v>44876</v>
+      </c>
+      <c r="B165">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A166" s="5">
+        <v>44877</v>
+      </c>
+      <c r="B166">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A167" s="5">
+        <v>44878</v>
+      </c>
+      <c r="B167">
+        <v>1181</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A168" s="5">
+        <v>44879</v>
+      </c>
+      <c r="B168">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A169" s="5">
+        <v>44880</v>
+      </c>
+      <c r="B169">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A170" s="5">
+        <v>44881</v>
+      </c>
+      <c r="B170">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A171" s="5">
+        <v>44882</v>
+      </c>
+      <c r="B171">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A172" s="5">
+        <v>44883</v>
+      </c>
+      <c r="B172">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A173" s="5">
+        <v>44884</v>
+      </c>
+      <c r="B173">
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A174" s="5">
+        <v>44885</v>
+      </c>
+      <c r="B174">
+        <v>1112</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A175" s="5">
+        <v>44886</v>
+      </c>
+      <c r="B175">
+        <v>1197</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A176" s="5">
+        <v>44887</v>
+      </c>
+      <c r="B176">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A177" s="5">
+        <v>44888</v>
+      </c>
+      <c r="B177">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A178" s="5">
+        <v>44889</v>
+      </c>
+      <c r="B178">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A179" s="5">
+        <v>44890</v>
+      </c>
+      <c r="B179">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A180" s="5">
+        <v>44891</v>
+      </c>
+      <c r="B180">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A181" s="5">
+        <v>44892</v>
+      </c>
+      <c r="B181">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A182" s="5">
+        <v>44893</v>
+      </c>
+      <c r="B182">
+        <v>1084</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A183" s="5">
+        <v>44894</v>
+      </c>
+      <c r="B183">
+        <v>1357</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A184" s="5">
+        <v>44895</v>
+      </c>
+      <c r="B184">
+        <v>1418</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A185" s="5">
+        <v>44896</v>
+      </c>
+      <c r="B185">
+        <v>1914</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A186" s="5">
+        <v>44897</v>
+      </c>
+      <c r="B186">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A187" s="5">
+        <v>44898</v>
+      </c>
+      <c r="B187">
+        <v>1480</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A188" s="5">
+        <v>44899</v>
+      </c>
+      <c r="B188">
+        <v>1735</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A189" s="5">
+        <v>44900</v>
+      </c>
+      <c r="B189">
+        <v>1489</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A190" s="5">
+        <v>44901</v>
+      </c>
+      <c r="B190">
+        <v>1469</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A191" s="5">
+        <v>44902</v>
+      </c>
+      <c r="B191">
+        <v>1389</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A192" s="5">
+        <v>44903</v>
+      </c>
+      <c r="B192">
+        <v>1179</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A193" s="5">
+        <v>44904</v>
+      </c>
+      <c r="B193">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A194" s="5">
+        <v>44905</v>
+      </c>
+      <c r="B194">
+        <v>1677</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A195" s="5">
+        <v>44906</v>
+      </c>
+      <c r="B195">
+        <v>1966</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A196" s="5">
+        <v>44907</v>
+      </c>
+      <c r="B196">
+        <v>1878</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A197" s="5">
+        <v>44908</v>
+      </c>
+      <c r="B197">
+        <v>1645</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A198" s="5">
+        <v>44909</v>
+      </c>
+      <c r="B198">
+        <v>1498</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A199" s="5">
+        <v>44910</v>
+      </c>
+      <c r="B199">
+        <v>1465</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A200" s="5">
+        <v>44911</v>
+      </c>
+      <c r="B200">
+        <v>1463</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A201" s="5">
+        <v>44912</v>
+      </c>
+      <c r="B201">
+        <v>2052</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A202" s="5">
+        <v>44913</v>
+      </c>
+      <c r="B202">
+        <v>1567</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A203" s="5">
+        <v>44914</v>
+      </c>
+      <c r="B203">
+        <v>1731</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A204" s="5">
+        <v>44915</v>
+      </c>
+      <c r="B204">
+        <v>1560</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A205" s="5">
+        <v>44916</v>
+      </c>
+      <c r="B205">
+        <v>1408</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A206" s="5">
+        <v>44917</v>
+      </c>
+      <c r="B206">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A207" s="5">
+        <v>44918</v>
+      </c>
+      <c r="B207">
+        <v>1501</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A208" s="5">
+        <v>44919</v>
+      </c>
+      <c r="B208">
+        <v>1807</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A209" s="5">
+        <v>44920</v>
+      </c>
+      <c r="B209">
+        <v>1583</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A210" s="5">
+        <v>44921</v>
+      </c>
+      <c r="B210">
+        <v>1727</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A211" s="5">
+        <v>44922</v>
+      </c>
+      <c r="B211">
+        <v>1742</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A212" s="5">
+        <v>44923</v>
+      </c>
+      <c r="B212">
+        <v>1908</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A213" s="5">
+        <v>44924</v>
+      </c>
+      <c r="B213">
+        <v>1604</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A214" s="5">
+        <v>44925</v>
+      </c>
+      <c r="B214">
+        <v>1822</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A215" s="5">
+        <v>44926</v>
+      </c>
+      <c r="B215">
+        <v>2037</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A216" s="5">
+        <v>44927</v>
+      </c>
+      <c r="B216">
+        <v>2138</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A217" s="5">
+        <v>44928</v>
+      </c>
+      <c r="B217">
+        <v>2077</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A218" s="5">
+        <v>44929</v>
+      </c>
+      <c r="B218">
+        <v>1894</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A219" s="5">
+        <v>44930</v>
+      </c>
+      <c r="B219">
+        <v>1934</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A220" s="5">
+        <v>44931</v>
+      </c>
+      <c r="B220">
+        <v>1855</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A221" s="5">
+        <v>44932</v>
+      </c>
+      <c r="B221">
+        <v>1828</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A222" s="5">
+        <v>44933</v>
+      </c>
+      <c r="B222">
+        <v>1824</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A223" s="5">
+        <v>44934</v>
+      </c>
+      <c r="B223">
+        <v>2029</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A224" s="5">
+        <v>44935</v>
+      </c>
+      <c r="B224">
+        <v>1917</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A225" s="5">
+        <v>44936</v>
+      </c>
+      <c r="B225">
+        <v>1984</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A226" s="5">
+        <v>44937</v>
+      </c>
+      <c r="B226">
+        <v>2003</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A227" s="5">
+        <v>44938</v>
+      </c>
+      <c r="B227">
+        <v>1812</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A228" s="5">
+        <v>44939</v>
+      </c>
+      <c r="B228">
+        <v>1867</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A229" s="5">
+        <v>44940</v>
+      </c>
+      <c r="B229">
+        <v>1984</v>
+      </c>
+      <c r="C229">
+        <v>1984</v>
+      </c>
+      <c r="D229" s="14">
+        <v>1984</v>
+      </c>
+      <c r="E229" s="14">
+        <v>1984</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A230" s="5">
+        <v>44941</v>
+      </c>
+      <c r="C230" s="3">
+        <f>_xlfn.FORECAST.ETS(A230,$B$2:$B$229,$A$2:$A$229,1,1)</f>
+        <v>1990.2155092201199</v>
+      </c>
+      <c r="D230" s="3">
+        <f>C230-_xlfn.FORECAST.ETS.CONFINT(A230,$B$2:$B$229,$A$2:$A$229,0.85,1,1)</f>
+        <v>1688.6327060440249</v>
+      </c>
+      <c r="E230" s="3">
+        <f>C230+_xlfn.FORECAST.ETS.CONFINT(A230,$B$2:$B$229,$A$2:$A$229,0.85,1,1)</f>
+        <v>2291.7983123962149</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A231" s="5">
+        <v>44942</v>
+      </c>
+      <c r="C231" s="3">
+        <f>_xlfn.FORECAST.ETS(A231,$B$2:$B$229,$A$2:$A$229,1,1)</f>
+        <v>1996.4310184402391</v>
+      </c>
+      <c r="D231" s="3">
+        <f>C231-_xlfn.FORECAST.ETS.CONFINT(A231,$B$2:$B$229,$A$2:$A$229,0.85,1,1)</f>
+        <v>1603.6651141103252</v>
+      </c>
+      <c r="E231" s="3">
+        <f>C231+_xlfn.FORECAST.ETS.CONFINT(A231,$B$2:$B$229,$A$2:$A$229,0.85,1,1)</f>
+        <v>2389.1969227701529</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A232" s="5">
+        <v>44943</v>
+      </c>
+      <c r="C232" s="3">
+        <f>_xlfn.FORECAST.ETS(A232,$B$2:$B$229,$A$2:$A$229,1,1)</f>
+        <v>2002.646527660359</v>
+      </c>
+      <c r="D232" s="3">
+        <f>C232-_xlfn.FORECAST.ETS.CONFINT(A232,$B$2:$B$229,$A$2:$A$229,0.85,1,1)</f>
+        <v>1536.031285934175</v>
+      </c>
+      <c r="E232" s="3">
+        <f>C232+_xlfn.FORECAST.ETS.CONFINT(A232,$B$2:$B$229,$A$2:$A$229,0.85,1,1)</f>
+        <v>2469.2617693865427</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A233" s="5">
+        <v>44944</v>
+      </c>
+      <c r="C233" s="3">
+        <f>_xlfn.FORECAST.ETS(A233,$B$2:$B$229,$A$2:$A$229,1,1)</f>
+        <v>2008.8620368804782</v>
+      </c>
+      <c r="D233" s="3">
+        <f>C233-_xlfn.FORECAST.ETS.CONFINT(A233,$B$2:$B$229,$A$2:$A$229,0.85,1,1)</f>
+        <v>1478.4409271033546</v>
+      </c>
+      <c r="E233" s="3">
+        <f>C233+_xlfn.FORECAST.ETS.CONFINT(A233,$B$2:$B$229,$A$2:$A$229,0.85,1,1)</f>
+        <v>2539.2831466576017</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A234" s="5">
+        <v>44945</v>
+      </c>
+      <c r="C234" s="3">
+        <f>_xlfn.FORECAST.ETS(A234,$B$2:$B$229,$A$2:$A$229,1,1)</f>
+        <v>2015.0775461005981</v>
+      </c>
+      <c r="D234" s="3">
+        <f>C234-_xlfn.FORECAST.ETS.CONFINT(A234,$B$2:$B$229,$A$2:$A$229,0.85,1,1)</f>
+        <v>1427.6121878312783</v>
+      </c>
+      <c r="E234" s="3">
+        <f>C234+_xlfn.FORECAST.ETS.CONFINT(A234,$B$2:$B$229,$A$2:$A$229,0.85,1,1)</f>
+        <v>2602.5429043699178</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A235" s="5">
+        <v>44946</v>
+      </c>
+      <c r="C235" s="3">
+        <f>_xlfn.FORECAST.ETS(A235,$B$2:$B$229,$A$2:$A$229,1,1)</f>
+        <v>2021.2930553207173</v>
+      </c>
+      <c r="D235" s="3">
+        <f>C235-_xlfn.FORECAST.ETS.CONFINT(A235,$B$2:$B$229,$A$2:$A$229,0.85,1,1)</f>
+        <v>1381.7330924372718</v>
+      </c>
+      <c r="E235" s="3">
+        <f>C235+_xlfn.FORECAST.ETS.CONFINT(A235,$B$2:$B$229,$A$2:$A$229,0.85,1,1)</f>
+        <v>2660.8530182041627</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A236" s="5">
+        <v>44947</v>
+      </c>
+      <c r="C236" s="3">
+        <f>_xlfn.FORECAST.ETS(A236,$B$2:$B$229,$A$2:$A$229,1,1)</f>
+        <v>2027.5085645408371</v>
+      </c>
+      <c r="D236" s="3">
+        <f>C236-_xlfn.FORECAST.ETS.CONFINT(A236,$B$2:$B$229,$A$2:$A$229,0.85,1,1)</f>
+        <v>1339.6779658666496</v>
+      </c>
+      <c r="E236" s="3">
+        <f>C236+_xlfn.FORECAST.ETS.CONFINT(A236,$B$2:$B$229,$A$2:$A$229,0.85,1,1)</f>
+        <v>2715.3391632150247</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05BA17C2-CA79-4078-B6F7-7FCD482A9F54}">
   <dimension ref="A1:G230"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0"/>
+    <sheetView topLeftCell="A215" zoomScale="146" zoomScaleNormal="146" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B230"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="9.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
@@ -2302,20 +10548,28 @@
   <mergeCells count="1">
     <mergeCell ref="D1:G1"/>
   </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D133" xr:uid="{3D1AAACD-C9D2-47CF-B5ED-0A5120001208}">
+      <formula1>#REF!</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F99F9C06-9C99-4D54-AEC8-65AC9E7407EA}">
   <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0"/>
+    <sheetView topLeftCell="E1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.33203125" customWidth="1"/>
     <col min="6" max="6" width="16.6640625" customWidth="1"/>
     <col min="7" max="7" width="13.5546875" customWidth="1"/>
@@ -2340,6 +10594,15 @@
       <c r="B2" s="7" t="s">
         <v>1</v>
       </c>
+      <c r="C2" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
     </row>
     <row r="3" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="8">
@@ -2348,6 +10611,9 @@
       <c r="B3" s="9">
         <v>1671</v>
       </c>
+      <c r="C3" s="3">
+        <v>1750.1538758791867</v>
+      </c>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
@@ -2359,6 +10625,9 @@
       <c r="B4" s="9">
         <v>1783</v>
       </c>
+      <c r="C4" s="3">
+        <v>1753.9250660657417</v>
+      </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
@@ -2370,6 +10639,9 @@
       <c r="B5" s="9">
         <v>1847</v>
       </c>
+      <c r="C5" s="3">
+        <v>1757.6106877662241</v>
+      </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
@@ -2381,6 +10653,9 @@
       <c r="B6" s="9">
         <v>2151</v>
       </c>
+      <c r="C6" s="3">
+        <v>1761.2004943749635</v>
+      </c>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
@@ -2392,6 +10667,9 @@
       <c r="B7" s="9">
         <v>1754</v>
       </c>
+      <c r="C7" s="3">
+        <v>1764.6928413707647</v>
+      </c>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
@@ -2403,6 +10681,9 @@
       <c r="B8" s="9">
         <v>1800</v>
       </c>
+      <c r="C8" s="3">
+        <v>1767.9616364712128</v>
+      </c>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
@@ -2414,6 +10695,9 @@
       <c r="B9" s="9">
         <v>2485</v>
       </c>
+      <c r="C9" s="3">
+        <v>1771.321356467437</v>
+      </c>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
@@ -2422,9 +10706,11 @@
       <c r="A10" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="C1:J1"/>
+    <mergeCell ref="D2:G2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>